--- a/fastqFiles/fastq_1874.xlsx
+++ b/fastqFiles/fastq_1874.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FB3C0F-4030-3D4F-8638-2983E0D0A364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +43,6 @@
     <t>11.10.16</t>
   </si>
   <si>
-    <t>Retrofitted_1874</t>
-  </si>
-  <si>
     <t>sequence/run_1874_samples/1874_Brent_1_TGAGGTT_S1_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -164,13 +167,19 @@
   </si>
   <si>
     <t>sequence/run_1874_samples/1874_Brent_42_ACTCCAA_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +242,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -279,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +328,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +380,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,12 +602,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -561,18 +616,18 @@
         <v>1874</v>
       </c>
       <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -581,18 +636,18 @@
         <v>1874</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -601,18 +656,18 @@
         <v>1874</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -621,18 +676,18 @@
         <v>1874</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -641,38 +696,38 @@
         <v>1874</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1874</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1874</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -681,18 +736,18 @@
         <v>1874</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -701,18 +756,18 @@
         <v>1874</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -721,18 +776,18 @@
         <v>1874</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -741,18 +796,18 @@
         <v>1874</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -761,18 +816,18 @@
         <v>1874</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -781,18 +836,18 @@
         <v>1874</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -801,18 +856,18 @@
         <v>1874</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -821,18 +876,18 @@
         <v>1874</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -841,18 +896,18 @@
         <v>1874</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -861,18 +916,18 @@
         <v>1874</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -881,18 +936,18 @@
         <v>1874</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -901,18 +956,18 @@
         <v>1874</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -921,18 +976,18 @@
         <v>1874</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -941,18 +996,18 @@
         <v>1874</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -961,18 +1016,18 @@
         <v>1874</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -981,18 +1036,18 @@
         <v>1874</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1001,18 +1056,18 @@
         <v>1874</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1021,18 +1076,18 @@
         <v>1874</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1041,18 +1096,18 @@
         <v>1874</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1061,18 +1116,18 @@
         <v>1874</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1081,18 +1136,18 @@
         <v>1874</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1101,18 +1156,18 @@
         <v>1874</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1121,18 +1176,18 @@
         <v>1874</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1141,18 +1196,18 @@
         <v>1874</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1161,18 +1216,18 @@
         <v>1874</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1181,18 +1236,18 @@
         <v>1874</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1201,18 +1256,18 @@
         <v>1874</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1221,18 +1276,18 @@
         <v>1874</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1241,18 +1296,18 @@
         <v>1874</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1261,18 +1316,18 @@
         <v>1874</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1281,18 +1336,18 @@
         <v>1874</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1301,18 +1356,18 @@
         <v>1874</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1321,18 +1376,18 @@
         <v>1874</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1341,18 +1396,18 @@
         <v>1874</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1361,18 +1416,18 @@
         <v>1874</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1381,10 +1436,10 @@
         <v>1874</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_1874.xlsx
+++ b/fastqFiles/fastq_1874.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">

--- a/fastqFiles/fastq_1874.xlsx
+++ b/fastqFiles/fastq_1874.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="56">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">1874_Brent_4_CACCTCC_S4_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1874_Brent_5_ATCGAGC_S5_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">1874_Brent_33_ACCATAC_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32]</t>
   </si>
   <si>
     <t xml:space="preserve">1874_Brent_34_AATACGC_S34_R1_001.fastq.gz</t>
@@ -281,13 +287,15 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V18" activeCellId="0" sqref="V18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,11 +409,11 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -422,16 +430,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -448,13 +456,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>4</v>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +482,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>9</v>
       </c>
@@ -714,16 +722,16 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>9</v>
       </c>
@@ -740,16 +748,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>9</v>
       </c>
@@ -766,13 +774,13 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>4</v>
+      <c r="I22" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <v>32</v>
+      <c r="I34" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
